--- a/output/fit_clients/fit_round_68.xlsx
+++ b/output/fit_clients/fit_round_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6868372555.80796</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004099468474307436</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.936421433281899</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9269604496873179</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.936421433281899</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6712064101.192459</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005608053070602264</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.440700960794262</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8760745131621329</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.440700960794262</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5144666824.473038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003035142264371653</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.278232878266963</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9525089601160094</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.278232878266963</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3418462889.562894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004197448151964356</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.587116658305583</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8179078856296176</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.587116658305583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6827953028.576108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002957590624120138</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.428457150853607</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8556062998606625</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.428457150853607</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5603965925.703627</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001138137649199787</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.582786839671233</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8994351629819765</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.582786839671233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4871339081.905921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002350781746866663</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.419988440283001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9496685612906129</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.419988440283001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5769759161.131971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004056953720069029</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8636137407682644</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.02809131736797</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.147305322137484</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.02809131736797</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3407457082.932595</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005732646875767062</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.584706384703773</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9215211678031573</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.584706384703773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4780801676.796118</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001381003035903249</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.48175321586353</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7714922948844768</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.48175321586353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7656820449.847121</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001390712068776104</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3320416215964301</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.113781001276924</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7119629752936851</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.113781001276924</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5030078083.579437</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004484857296971093</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.504979554558077</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.008704956479028</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.504979554558077</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7441351047.401128</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002183402332525513</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.012381567301502</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8873397552338218</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.012381567301502</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5367844067.486515</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004633376994483231</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.420645673501674</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9833463732606984</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.420645673501674</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5993074088.236485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005388681494006163</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.090517468777043</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9052877782556898</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.090517468777043</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5042792744.878056</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002417444187385528</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.940744688769263</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9272343887928247</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.940744688769263</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6741936253.961153</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001254893749583076</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8038743001048637</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.973701158329304</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.134848280574274</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.973701158329304</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3076377329.828113</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001461820214453461</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.705217842545877</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8964266113915381</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.705217842545877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5358205126.168299</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009366382718620029</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
         <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.448590277844252</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8359253808111929</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.448590277844252</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5129798747.305214</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005291601471176755</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.779632634528769</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.844074197974504</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.779632634528769</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4876399661.341236</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003852497122384418</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.57015739439152</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7723869100609664</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.57015739439152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5925696139.453897</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001901311847026337</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.337338613398321</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8477120192043869</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.337338613398321</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5402790341.509645</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003072855598198916</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.128475660156083</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.983026136507741</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.128475660156083</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6411354946.119792</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003266367297149241</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.220382936025485</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9286572021056426</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.220382936025485</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4176795328.409638</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001222004607198838</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.298001778500357</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.796736033212609</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.298001778500357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8153203409.750431</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003068207053419092</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.81813092688952</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9243821921881927</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.81813092688952</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7982437499.881255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004034846936505263</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.927488196887338</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.897128797389863</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.927488196887338</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5987002224.880645</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001574368490519555</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.126741513136859</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9717101817887118</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.126741513136859</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6548899781.715442</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004240985460302994</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.569255468363179</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.874856503562201</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.569255468363179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7183786570.414831</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002446233966110044</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>17</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3796825151493002</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.539654046483348</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.7173519791581421</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.539654046483348</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3283624671.268473</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001468311134732739</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.986195748541344</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.911993982886692</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.986195748541344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7992058616.399497</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002694987265041296</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.115596819202067</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8335893746482105</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.115596819202067</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6166404512.217888</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004107259864053933</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.941178315689149</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7408294641467493</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.941178315689149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5867436762.27328</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001988417951030697</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.787999938468043</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9123391527108573</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.787999938468043</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7982366858.21895</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003912216383266807</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.1463193694978151</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.897290043241732</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.3690989891691175</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.897290043241732</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6185524662.153136</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004886378852000151</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.78715327004409</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9929457556847138</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.78715327004409</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3607561788.680924</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003283905960738545</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7453435997670408</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.531982482529827</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.056122178978983</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.531982482529827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>3980065552.872112</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003042619301740178</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8600140156165462</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.988575743146638</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.092849926716306</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.988575743146638</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5352586687.254532</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00443099479102466</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4871875262016768</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.889419442275317</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8884502254709798</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.889419442275317</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6667784120.697351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001519067004793437</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.042502385936117</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9141296524998384</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.042502385936117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6375719954.35434</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004634232722102619</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.596893273814671</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.958228038083015</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.596893273814671</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6796461764.821965</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004192822440476637</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.913725626547413</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9057027296408579</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.913725626547413</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7795218770.068764</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002066996764309036</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.733959601928812</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.924788575975302</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.733959601928812</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4554206323.890325</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001111814166797319</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.076889617724209</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9394864514431621</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.076889617724209</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7215929253.006714</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003826227968533088</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7508877010567626</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.819202010819537</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9873824194576113</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.819202010819537</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7779213762.994661</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002191918301743563</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.616266634356692</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8760050138784159</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.616266634356692</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6533207294.382428</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002438900653411176</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.369088832452015</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9408260261258707</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.369088832452015</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3798960164.823153</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003422561501655914</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>17</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8279178028956072</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.598479090877253</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.090381114107281</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.598479090877253</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7002062851.889116</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002573149176328613</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.509130794993779</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.099145114260578</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9718164394712205</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.099145114260578</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5006646726.200514</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003748370324819259</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.60439526718294</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.929870215719384</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.60439526718294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7901413285.38317</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001761334344428414</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.833312184546242</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8463812665957615</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.833312184546242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7128238843.942895</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003514664742284884</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.036565420095073</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9228868195503863</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.036565420095073</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6057998975.457308</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005395829072326884</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.533823682759372</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8344903783543284</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.533823682759372</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7782934489.610032</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003951590494306555</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.604890045665714</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8870534959870968</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.604890045665714</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>3880170026.15333</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002477587003811404</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.0572241983303</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9108240082663297</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.0572241983303</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8140700844.769832</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003294101532417958</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.656600933733877</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8066930013751024</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.656600933733877</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4708374466.630694</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002523208773757335</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.388516044019152</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8059120230970033</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.388516044019152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5755820859.606709</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003983857215430606</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.756405571946798</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8797994866064021</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.756405571946798</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4947936652.695419</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002805708489527696</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.577184164299045</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8178334433752188</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.577184164299045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7228754132.847035</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005580942226617198</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.073898132725474</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9161160507305935</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.073898132725474</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5752472484.90831</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003740785198989556</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.280384289992958</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8539192096177994</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.280384289992958</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6821599149.163436</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005620335317672921</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>18</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.364248079407294</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5144957554275266</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.364248079407294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4718053556.92776</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003999509542883176</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.860142443396755</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8778696237770355</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.860142443396755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6324060150.21288</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005490826057634365</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.064393337452278</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9807194724036834</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.064393337452278</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5888331814.727551</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00364962016923364</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.057812850944487</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9086135641758024</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.057812850944487</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4761530099.316649</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003612823122914695</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.40914288838424</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8857818499402644</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.40914288838424</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7743632664.591754</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002226244175107863</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.333117358937702</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6971248098483563</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.333117358937702</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6646458814.171515</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001207917169101331</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.814063524388339</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9873661183132628</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.814063524388339</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6802360478.934103</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002824135520511891</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.976737506208739</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8854263272209404</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.976737506208739</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4672663736.29033</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003325816329559283</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.11314999653201</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8007540960668509</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.11314999653201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5993320799.793495</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002365673411147994</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>16</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6349414803796015</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.533533128579525</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.102778511003808</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.533533128579525</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5513229000.165087</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009954226182699014</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.002894693862748</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9433593427139328</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.002894693862748</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5712756570.676451</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003155434631980056</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.957668988944411</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8770826064761647</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.957668988944411</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5979954011.674273</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003748884169118407</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.69691245681512</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8452645350429333</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.69691245681512</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6801245271.285457</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002036259284991591</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.703029661480652</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9083340093428004</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.703029661480652</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6914343939.962229</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004170061671218038</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.199655078131835</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9699632039976551</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.199655078131835</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7291377939.516698</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004753144508330818</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.650464979985649</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8949525587137223</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.650464979985649</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6059938511.161319</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001646805291495148</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.01026951331100595</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.664344102385566</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.2892692195001692</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.664344102385566</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6109495048.607121</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003226927613997666</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.833848122350322</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9459502396044275</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.833848122350322</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6295419993.070488</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003741310222274151</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.437575935356953</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9685382086291562</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.437575935356953</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6360199224.332176</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004227486022716363</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.545470470309846</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8598570796368731</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.545470470309846</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10515169228.39062</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002945527752865084</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.167566336784096</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7836909754446806</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.167566336784096</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7368743797.1354</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003905203633576068</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.428819004568084</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.439615192853694</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.7773081259606324</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.439615192853694</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5716652019.699391</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00278723146144759</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.342636200910359</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8780083216545974</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.342636200910359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6234618447.298406</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002614681022007894</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.877431127369511</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9662599693359666</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.877431127369511</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4379754855.103292</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001595189347763359</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>21</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.222532510313719</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9314197452754478</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.222532510313719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7500755843.294944</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004867377298693046</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.727472544238761</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8328336184563687</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.727472544238761</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5812321751.555654</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005137613372755536</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.006210150979491</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.936606560754176</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.006210150979491</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6688750416.185753</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003084802586202865</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.830130624479003</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9344571068902403</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.830130624479003</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4948958238.242627</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004395068366140945</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.027319311965937</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8032614066404083</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.027319311965937</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4379571123.681795</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003830060710814548</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.974289424516741</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.027716105491532</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.974289424516741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6343535073.498269</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001356575164432659</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.553904404176358</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8934760741539537</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.553904404176358</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5457237986.681953</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001358641183318036</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3387691046161831</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.21279416841106</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.7448569698107023</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.21279416841106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6032249708.193398</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001949211178964455</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.094050904105331</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.917766513810697</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.094050904105331</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7529496006.926208</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003163903618188972</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>19</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.2924881109788458</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.393699822535454</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.5350182868655018</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.393699822535454</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7830692124.407228</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004732036118660335</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.935204568816879</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8752163198733858</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.935204568816879</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7353523813.170709</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004286229206130133</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7829214923066873</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.610771501192382</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.044034930860726</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.610771501192382</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3832245828.954094</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.003732341927598636</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5542037645780307</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.585255301207188</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8787252257617219</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.585255301207188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3992178370.196543</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002495435215900124</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.889853597752121</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.725886513794381</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.076310958840963</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.725886513794381</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7409504523.146905</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001130884288720313</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.821313627965329</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.236170166102972</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.821313627965329</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_68.xlsx
+++ b/output/fit_clients/fit_round_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6868372555.80796</v>
+        <v>2511769486.809509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004099468474307436</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.07971692157167266</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03552003081255185</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1255884807.741452</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6712064101.192459</v>
+        <v>2068683809.753041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005608053070602264</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1550771990831684</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03785351050599982</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>17</v>
+      <c r="J3" t="n">
+        <v>1034341955.468774</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5144666824.473038</v>
+        <v>4220400741.716292</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003035142264371653</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+        <v>0.111128176692107</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02989688518351384</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2110200400.544043</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3418462889.562894</v>
+        <v>3220956164.815723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004197448151964356</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09146982793291084</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03415683426858352</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1610478137.562296</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6827953028.576108</v>
+        <v>1969689764.346701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002957590624120138</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.147160933189576</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04182431957679093</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>984844914.9544171</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5603965925.703627</v>
+        <v>2337564352.108573</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001138137649199787</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.07176599484521955</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04834340527578521</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1168782204.601489</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4871339081.905921</v>
+        <v>2483420663.109248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002350781746866663</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1859277625925584</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03181551362014436</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1241710336.156914</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5769759161.131971</v>
+        <v>1762135855.487186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004056953720069029</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22</v>
+        <v>0.1366966089377023</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02330751440397883</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>881067987.2697858</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3407457082.932595</v>
+        <v>5892606209.155074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005732646875767062</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1319710854023976</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0508966122431681</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2946303272.880718</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4780801676.796118</v>
+        <v>4063189371.536734</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001381003035903249</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1653581887760532</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04599724107709882</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2031594702.757863</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7656820449.847121</v>
+        <v>2953793539.962881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001390712068776104</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1936085477796598</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04919561192866703</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>19</v>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1476896783.645698</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5030078083.579437</v>
+        <v>4287140221.284112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004484857296971093</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
+        <v>0.06554487652200505</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0281648963169498</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2143570150.884827</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7441351047.401128</v>
+        <v>2457835234.900303</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002183402332525513</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
+        <v>0.1277512877199418</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03829698481771163</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1228917691.027293</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5367844067.486515</v>
+        <v>1558040900.020907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004633376994483231</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19</v>
+        <v>0.08278054798379959</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04188016042148076</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>779020548.5642005</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5993074088.236485</v>
+        <v>2859247978.294789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005388681494006163</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>22</v>
+        <v>0.08826217533962415</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03892656376874493</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1429623987.774209</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5042792744.878056</v>
+        <v>3257031785.277546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002417444187385528</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14</v>
+        <v>0.1349103534016609</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04712338057539799</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1628515963.805854</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6741936253.961153</v>
+        <v>2824985717.498067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001254893749583076</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>18</v>
+        <v>0.1335850248137682</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03362468915148072</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1412492901.574219</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3076377329.828113</v>
+        <v>918822535.0737956</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001461820214453461</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1813003255783259</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02394671088989929</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>459411276.9051718</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5358205126.168299</v>
+        <v>1832700281.78062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009366382718620029</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1115530169314647</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03030450553723315</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>916350184.9370816</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5129798747.305214</v>
+        <v>2576063202.696159</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005291601471176755</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.09645694414403636</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0369306645033815</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1288031582.117479</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4876399661.341236</v>
+        <v>3285505279.408526</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003852497122384418</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.09219988794610529</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04016293297750933</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1642752684.035711</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5925696139.453897</v>
+        <v>1047337048.257074</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001901311847026337</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13</v>
+        <v>0.1822030156865456</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03876320728853237</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>523668586.2299946</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5402790341.509645</v>
+        <v>2765684367.659764</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003072855598198916</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1171445396945229</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0332229620855529</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1382842234.749053</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6411354946.119792</v>
+        <v>1181718899.581535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003266367297149241</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14</v>
+        <v>0.1212122031063267</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02243202836306635</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>590859471.8624523</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4176795328.409638</v>
+        <v>1416455089.564833</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001222004607198838</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08346737150789073</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03448154320031423</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>708227618.7381938</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8153203409.750431</v>
+        <v>3419865554.277213</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003068207053419092</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1490512123515707</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02035775953989475</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1709932815.9905</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3680422274.408819</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09585395140617391</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03208101414794595</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7982437499.881255</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004034846936505263</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>17</v>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1840211207.425061</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5987002224.880645</v>
+        <v>5612127542.228635</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001574368490519555</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.09616982989154078</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03160343232404084</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2806063676.139787</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6548899781.715442</v>
+        <v>2391128585.803991</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004240985460302994</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1242147728622902</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03216997038765416</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1195564374.793157</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7183786570.414831</v>
+        <v>955977059.773243</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002446233966110044</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14</v>
+        <v>0.07182346506819409</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03363595125340964</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>477988538.6478739</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3283624671.268473</v>
+        <v>1868078520.348664</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001468311134732739</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1001515828866055</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02445451028944107</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>934039404.6660348</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7992058616.399497</v>
+        <v>2571219443.731807</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002694987265041296</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.1967026581505142</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04100762672433396</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1285609753.905866</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6166404512.217888</v>
+        <v>1142858342.445198</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004107259864053933</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>21</v>
+        <v>0.09148919768376297</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02096672358825194</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>571429185.5949764</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5867436762.27328</v>
+        <v>1364574875.658506</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001988417951030697</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>18</v>
+        <v>0.07495019771834727</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02964291346528295</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>682287376.3391992</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7982366858.21895</v>
+        <v>2629109078.986628</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003912216383266807</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>19</v>
+        <v>0.1748778514753422</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02344569282196427</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1314554551.034691</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6185524662.153136</v>
+        <v>2087906986.601886</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004886378852000151</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>17</v>
+        <v>0.1006535306393186</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04229230302481699</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1043953532.572111</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3607561788.680924</v>
+        <v>2143854763.935187</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003283905960738545</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1165925930067654</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03062693155370505</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1071927340.171991</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>3980065552.872112</v>
+        <v>1746352221.126593</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003042619301740178</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1762070806837234</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02690342989192283</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>873176143.521306</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5352586687.254532</v>
+        <v>1316235123.46657</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00443099479102466</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.114437433227023</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04486120034838843</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>658117573.8453676</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6667784120.697351</v>
+        <v>2255029720.352281</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001519067004793437</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>19</v>
+        <v>0.1563655091257688</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03796893915488973</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1127514909.304092</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6375719954.35434</v>
+        <v>3090081787.116893</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004634232722102619</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>17</v>
+        <v>0.1133165288443462</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0439218232907763</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1545040860.077687</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6796461764.821965</v>
+        <v>2976758085.200042</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004192822440476637</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>16</v>
+        <v>0.1678900535387235</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01828635398888036</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1488379043.225592</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7795218770.068764</v>
+        <v>2181873977.251554</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002066996764309036</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>18</v>
+        <v>0.100997651038039</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03025862052605022</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1090937131.145115</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4554206323.890325</v>
+        <v>2314258297.495522</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001111814166797319</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1750314414207439</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05385658966693554</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1157129171.157113</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7215929253.006714</v>
+        <v>4094592051.64318</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003826227968533088</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.1513023192411001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04893684412257814</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2047296000.671087</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7779213762.994661</v>
+        <v>3348556589.840649</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002191918301743563</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1820637939109395</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05411878221850358</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1674278257.041338</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6533207294.382428</v>
+        <v>4198376053.186385</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002438900653411176</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
+        <v>0.1084561418404827</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02398126174052573</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2099188049.359886</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3798960164.823153</v>
+        <v>1218397580.968084</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003422561501655914</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1874921865037839</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02867694047359828</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>609198866.2109877</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7002062851.889116</v>
+        <v>4173848439.825469</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002573149176328613</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.153547172304815</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0409999123101503</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>18</v>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2086924196.100103</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5006646726.200514</v>
+        <v>1299786468.54179</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003748370324819259</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1820352585548866</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04237380350933444</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>649893269.5658011</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7901413285.38317</v>
+        <v>3806158300.215843</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001761334344428414</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16</v>
+        <v>0.1134277392526587</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05798513596137339</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1903079217.89915</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7128238843.942895</v>
+        <v>2532727888.616953</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003514664742284884</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>13</v>
+        <v>0.1574065998295485</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02946640796128978</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1266364008.922273</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6057998975.457308</v>
+        <v>4865474583.871965</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005395829072326884</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1334468048346729</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03672083012991566</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2432737423.835135</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7782934489.610032</v>
+        <v>3799704985.220108</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003951590494306555</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>22</v>
+        <v>0.1815220129089497</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02464369784417327</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1899852458.576698</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>3880170026.15333</v>
+        <v>1340593301.06776</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002477587003811404</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1555332844418062</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04951433765912124</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>670296716.2622976</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8140700844.769832</v>
+        <v>2793753772.76136</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003294101532417958</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1716319880216184</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02564655175447271</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1396876873.394857</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4708374466.630694</v>
+        <v>1239610922.294739</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002523208773757335</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1250738377079148</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03814269052671816</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>619805515.9247797</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5755820859.606709</v>
+        <v>3596077638.817521</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003983857215430606</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.08507202393296909</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04512220283450374</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1798038814.710783</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4947936652.695419</v>
+        <v>2571852097.900156</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002805708489527696</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1523219852394778</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02188747514062394</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1285926074.303881</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7228754132.847035</v>
+        <v>3094748362.330354</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005580942226617198</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1744221800775189</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02840964231904576</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>15</v>
+      <c r="I61" t="n">
+        <v>23</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1547374152.590439</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5752472484.90831</v>
+        <v>2016799115.662815</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003740785198989556</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1567210075941183</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0486813530974783</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1008399618.295778</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6821599149.163436</v>
+        <v>3872457967.699885</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005620335317672921</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16</v>
+        <v>0.06811550019518006</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04560594545251521</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1936229051.824974</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4718053556.92776</v>
+        <v>4863371767.633551</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003999509542883176</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1466571461955488</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02878904283538921</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2431685980.303023</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6324060150.21288</v>
+        <v>4780851954.444264</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005490826057634365</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1701582057741594</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02896053463297204</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2390425949.106502</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5888331814.727551</v>
+        <v>4480850370.477112</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00364962016923364</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>13</v>
+        <v>0.1237418104756677</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03222313866679936</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2240425184.474191</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4761530099.316649</v>
+        <v>2403431231.228982</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003612823122914695</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.08551542196959261</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04174984864201035</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1201715684.243393</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7743632664.591754</v>
+        <v>3871717050.894047</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002226244175107863</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>0.09974216902120329</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03975383175804013</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1935858513.365853</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6646458814.171515</v>
+        <v>1650972595.263625</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001207917169101331</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>15</v>
+        <v>0.1316726460856006</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05249218157225023</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>825486257.3785293</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6802360478.934103</v>
+        <v>2679306793.365547</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002824135520511891</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.1018997763812164</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04617302528023006</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1339653352.71782</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4672663736.29033</v>
+        <v>4233789573.35633</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003325816329559283</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1371799663144319</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02528953825703083</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2116894835.102251</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5993320799.793495</v>
+        <v>1490058715.777142</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002365673411147994</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>14</v>
+        <v>0.07519998789160379</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03902766204961718</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>745029386.3765101</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5513229000.165087</v>
+        <v>2484944209.529095</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009954226182699014</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.09671364149109844</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04879539126813863</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1242472147.764793</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5712756570.676451</v>
+        <v>3220260221.97576</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003155434631980056</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1118846583468342</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03390004969716302</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1610130157.255882</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5979954011.674273</v>
+        <v>1806815762.247292</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003748884169118407</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.1538186454964953</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02729231199822459</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>903407863.3219045</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6801245271.285457</v>
+        <v>4577522063.652381</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002036259284991591</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>14</v>
+        <v>0.1139773109950456</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02453917862279205</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2288761040.684011</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6914343939.962229</v>
+        <v>1814018796.331569</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004170061671218038</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>22</v>
+        <v>0.1159960649789929</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02202017560679558</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>907009432.1189836</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7291377939.516698</v>
+        <v>4137722404.702296</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004753144508330818</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.09357760202646857</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0502079006066018</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>24</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2068861158.109532</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6059938511.161319</v>
+        <v>1637584458.39214</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001646805291495148</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>15</v>
+        <v>0.1305771572390786</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03043716847909738</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>818792287.331298</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6109495048.607121</v>
+        <v>4163465327.170249</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003226927613997666</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>22</v>
+        <v>0.06923789591247673</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03579562399484211</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2081732671.088683</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6295419993.070488</v>
+        <v>3746877941.439116</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003741310222274151</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.0890659080845578</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02846513903817065</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1873438924.398308</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6360199224.332176</v>
+        <v>5303887624.779305</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004227486022716363</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.2110055753190396</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0286769604612097</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2651943779.267121</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10515169228.39062</v>
+        <v>1936498657.349386</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002945527752865084</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>18</v>
+        <v>0.1126642169356459</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03593734400972279</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>968249305.9841534</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7368743797.1354</v>
+        <v>2201164165.561851</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003905203633576068</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>18</v>
+        <v>0.09029480002871655</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03204323688303523</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1100582058.218175</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5716652019.699391</v>
+        <v>3235170250.107516</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00278723146144759</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1344119123104912</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05086735006855871</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1617585211.062873</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6234618447.298406</v>
+        <v>2530986241.403019</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002614681022007894</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1334347742941673</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0181490109943301</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1265493222.083587</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4379754855.103292</v>
+        <v>1212374362.943517</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001595189347763359</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1736378322730201</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03669469344808003</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>606187240.1352334</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7500755843.294944</v>
+        <v>3512730226.314557</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004867377298693046</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>17</v>
+        <v>0.127114178022543</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02447278629221646</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1756365194.14587</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5812321751.555654</v>
+        <v>2548860724.248205</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005137613372755536</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>15</v>
+        <v>0.1392632187352743</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02705004615117104</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>23</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1274430433.20205</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6688750416.185753</v>
+        <v>1860004931.666166</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003084802586202865</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>12</v>
+        <v>0.1036446708975187</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04035948095469802</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>930002510.3824832</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4948958238.242627</v>
+        <v>1992149413.966732</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004395068366140945</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>21</v>
+        <v>0.1815411715194049</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04898716448064555</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>996074680.2017292</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4379571123.681795</v>
+        <v>2155258376.06562</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003830060710814548</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08151707096709877</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03692111688257745</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1077629145.837471</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6343535073.498269</v>
+        <v>5011982522.18814</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001356575164432659</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.1166239033892493</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04043857147479161</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2505991196.19952</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5457237986.681953</v>
+        <v>2107671139.211531</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001358641183318036</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21</v>
+        <v>0.1060788394145214</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04117671277764492</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1053835581.851853</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6032249708.193398</v>
+        <v>2809022230.125002</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001949211178964455</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>17</v>
+        <v>0.1316366783338015</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03690793989596682</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1404511128.577899</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7529496006.926208</v>
+        <v>1531072619.793201</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003163903618188972</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>18</v>
+        <v>0.09010197354837537</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0453736310765737</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>765536346.8244941</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7830692124.407228</v>
+        <v>4050644743.794644</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004732036118660335</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>18</v>
+        <v>0.1439919188729139</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01897178236139971</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2025322432.262046</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2772346602.504438</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.09509338255534534</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02935121761516843</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7353523813.170709</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.004286229206130133</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>25</v>
+      <c r="I98" t="n">
+        <v>18</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1386173270.405475</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3832245828.954094</v>
+        <v>2607759247.0343</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003732341927598636</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09966032810464842</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02743142186652749</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1303879580.925736</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3992178370.196543</v>
+        <v>2908873887.354641</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002495435215900124</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1490642482273841</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02689368978972165</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1454436927.152259</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7409504523.146905</v>
+        <v>2339043904.642472</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001130884288720313</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>22</v>
+        <v>0.1407752602237433</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03777593323686088</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1169521953.924422</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_68.xlsx
+++ b/output/fit_clients/fit_round_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2511769486.809509</v>
+        <v>2311931318.136755</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07971692157167266</v>
+        <v>0.1105530122672963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03552003081255185</v>
+        <v>0.03064174945566903</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1255884807.741452</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2068683809.753041</v>
+        <v>2432698892.182645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1550771990831684</v>
+        <v>0.1123345706231481</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03785351050599982</v>
+        <v>0.03681265977103845</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1034341955.468774</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4220400741.716292</v>
+        <v>4333524385.77585</v>
       </c>
       <c r="F4" t="n">
-        <v>0.111128176692107</v>
+        <v>0.1119973931190866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02989688518351384</v>
+        <v>0.02800539345851296</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2110200400.544043</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3220956164.815723</v>
+        <v>3523680199.98869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09146982793291084</v>
+        <v>0.07055718063311379</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03415683426858352</v>
+        <v>0.03722295157538951</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1610478137.562296</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1969689764.346701</v>
+        <v>2436307673.837891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.147160933189576</v>
+        <v>0.1054899827377586</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04182431957679093</v>
+        <v>0.03710591310858804</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>984844914.9544171</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2337564352.108573</v>
+        <v>2994098138.512077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07176599484521955</v>
+        <v>0.08667326830740228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04834340527578521</v>
+        <v>0.0356580708815061</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1168782204.601489</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2483420663.109248</v>
+        <v>2915633099.400456</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1859277625925584</v>
+        <v>0.1641910745780677</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03181551362014436</v>
+        <v>0.03284942606139241</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1241710336.156914</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1762135855.487186</v>
+        <v>2054994402.506909</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1366966089377023</v>
+        <v>0.1952892788814619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02330751440397883</v>
+        <v>0.02903859888555993</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>881067987.2697858</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5892606209.155074</v>
+        <v>3911810595.556102</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1319710854023976</v>
+        <v>0.2121995321008833</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0508966122431681</v>
+        <v>0.03533940064652326</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>29</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2946303272.880718</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4063189371.536734</v>
+        <v>4006354611.975942</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1653581887760532</v>
+        <v>0.1466312305490321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04599724107709882</v>
+        <v>0.04211598761352468</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2031594702.757863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2953793539.962881</v>
+        <v>2304813930.563713</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1936085477796598</v>
+        <v>0.1874129903954803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04919561192866703</v>
+        <v>0.04044409106849384</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1476896783.645698</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4287140221.284112</v>
+        <v>4379484732.581038</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06554487652200505</v>
+        <v>0.08548668228382407</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0281648963169498</v>
+        <v>0.01914962083666237</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>23</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2143570150.884827</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2457835234.900303</v>
+        <v>3110045651.34538</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1277512877199418</v>
+        <v>0.1468125263756357</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03829698481771163</v>
+        <v>0.02952239592486397</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1228917691.027293</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1558040900.020907</v>
+        <v>1743559292.196767</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08278054798379959</v>
+        <v>0.1047875271318626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04188016042148076</v>
+        <v>0.04713829235820132</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>779020548.5642005</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2859247978.294789</v>
+        <v>2004990932.705609</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08826217533962415</v>
+        <v>0.1030173754036474</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03892656376874493</v>
+        <v>0.04432530795948324</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1429623987.774209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3257031785.277546</v>
+        <v>4668221367.998222</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1349103534016609</v>
+        <v>0.1104196319435458</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04712338057539799</v>
+        <v>0.03399126064298554</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1628515963.805854</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2824985717.498067</v>
+        <v>3503390250.762099</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1335850248137682</v>
+        <v>0.1843283893359673</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03362468915148072</v>
+        <v>0.02641084126277068</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1412492901.574219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>918822535.0737956</v>
+        <v>1212447718.357016</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1813003255783259</v>
+        <v>0.1313044563574813</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02394671088989929</v>
+        <v>0.01719806818642911</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>459411276.9051718</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1832700281.78062</v>
+        <v>2681579777.0919</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1115530169314647</v>
+        <v>0.1200342116573384</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03030450553723315</v>
+        <v>0.02980673287811455</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>916350184.9370816</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2576063202.696159</v>
+        <v>2042832669.191028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09645694414403636</v>
+        <v>0.07673857355424969</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0369306645033815</v>
+        <v>0.0319181558076438</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1288031582.117479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3285505279.408526</v>
+        <v>3785084941.643826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09219988794610529</v>
+        <v>0.1199676843314219</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04016293297750933</v>
+        <v>0.03947163688154993</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1642752684.035711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1047337048.257074</v>
+        <v>1311285868.579894</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1822030156865456</v>
+        <v>0.1602364702616509</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03876320728853237</v>
+        <v>0.04070112452708572</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>523668586.2299946</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2765684367.659764</v>
+        <v>3430700753.482947</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1171445396945229</v>
+        <v>0.1471966332718131</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0332229620855529</v>
+        <v>0.03153012149262586</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1382842234.749053</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1181718899.581535</v>
+        <v>945622497.5583847</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1212122031063267</v>
+        <v>0.08568503823635096</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02243202836306635</v>
+        <v>0.02698521288998925</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>590859471.8624523</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1416455089.564833</v>
+        <v>1125961882.965886</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08346737150789073</v>
+        <v>0.07591005384696767</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03448154320031423</v>
+        <v>0.02461979982671091</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>708227618.7381938</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3419865554.277213</v>
+        <v>4045898082.270926</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1490512123515707</v>
+        <v>0.1483879630449688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02035775953989475</v>
+        <v>0.02045284655160369</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1709932815.9905</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3680422274.408819</v>
+        <v>3648356012.616852</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09585395140617391</v>
+        <v>0.1313720620639676</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03208101414794595</v>
+        <v>0.04127335764887356</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>22</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1840211207.425061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5612127542.228635</v>
+        <v>3801086641.25686</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09616982989154078</v>
+        <v>0.1499060081655853</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03160343232404084</v>
+        <v>0.04062884497582916</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2806063676.139787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2391128585.803991</v>
+        <v>1567904092.913878</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1242147728622902</v>
+        <v>0.1129904980595812</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03216997038765416</v>
+        <v>0.03315241004969518</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1195564374.793157</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>955977059.773243</v>
+        <v>1384956226.19576</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07182346506819409</v>
+        <v>0.09274766916736456</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03363595125340964</v>
+        <v>0.04016766935992115</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>477988538.6478739</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1868078520.348664</v>
+        <v>1529751138.308421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1001515828866055</v>
+        <v>0.1165790897094783</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02445451028944107</v>
+        <v>0.03296796171992845</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>934039404.6660348</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2571219443.731807</v>
+        <v>2055529667.098809</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1967026581505142</v>
+        <v>0.1325005020729392</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04100762672433396</v>
+        <v>0.05345436911026089</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1285609753.905866</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1142858342.445198</v>
+        <v>1334635304.980096</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09148919768376297</v>
+        <v>0.0793422691638115</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02096672358825194</v>
+        <v>0.02253036879297925</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>571429185.5949764</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1364574875.658506</v>
+        <v>1182228633.833399</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07495019771834727</v>
+        <v>0.08826963981413329</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02964291346528295</v>
+        <v>0.03376356295421137</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>682287376.3391992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2629109078.986628</v>
+        <v>1967924936.652728</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1748778514753422</v>
+        <v>0.1134114624535123</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02344569282196427</v>
+        <v>0.02788900168125487</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1314554551.034691</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2087906986.601886</v>
+        <v>1795942406.722814</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1006535306393186</v>
+        <v>0.0689671095734412</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04229230302481699</v>
+        <v>0.03629468794980183</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1043953532.572111</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2143854763.935187</v>
+        <v>1699076881.443643</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1165925930067654</v>
+        <v>0.07876648783697759</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03062693155370505</v>
+        <v>0.02651118991774457</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1071927340.171991</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1746352221.126593</v>
+        <v>1616609806.117284</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1762070806837234</v>
+        <v>0.1702012118262952</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02690342989192283</v>
+        <v>0.02603320288806485</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>873176143.521306</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1316235123.46657</v>
+        <v>1469031772.934215</v>
       </c>
       <c r="F40" t="n">
-        <v>0.114437433227023</v>
+        <v>0.1234049568437999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04486120034838843</v>
+        <v>0.05774269579195233</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>658117573.8453676</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2255029720.352281</v>
+        <v>2246210394.635726</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1563655091257688</v>
+        <v>0.1488475210333728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03796893915488973</v>
+        <v>0.04468362114424095</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1127514909.304092</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3090081787.116893</v>
+        <v>3747388555.584056</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1133165288443462</v>
+        <v>0.092729236104656</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0439218232907763</v>
+        <v>0.03701611699008837</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1545040860.077687</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2976758085.200042</v>
+        <v>2397473572.21104</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1678900535387235</v>
+        <v>0.1722215266035922</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01828635398888036</v>
+        <v>0.01837142035047756</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>23</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1488379043.225592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2181873977.251554</v>
+        <v>2181066463.139097</v>
       </c>
       <c r="F44" t="n">
-        <v>0.100997651038039</v>
+        <v>0.0743452884720725</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03025862052605022</v>
+        <v>0.03586629289768517</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1090937131.145115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2314258297.495522</v>
+        <v>2488137799.963633</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1750314414207439</v>
+        <v>0.1418426466264837</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05385658966693554</v>
+        <v>0.04564090084399108</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1157129171.157113</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4094592051.64318</v>
+        <v>3995716932.951626</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1513023192411001</v>
+        <v>0.1559548088648192</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04893684412257814</v>
+        <v>0.04640473466765416</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>24</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2047296000.671087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3348556589.840649</v>
+        <v>3996511509.477731</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1820637939109395</v>
+        <v>0.1618440650039105</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05411878221850358</v>
+        <v>0.04654123876170087</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>18</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1674278257.041338</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4198376053.186385</v>
+        <v>3975467653.66398</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1084561418404827</v>
+        <v>0.06720462004775189</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02398126174052573</v>
+        <v>0.03267206404169426</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2099188049.359886</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1218397580.968084</v>
+        <v>1247643055.944223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1874921865037839</v>
+        <v>0.166604173465485</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02867694047359828</v>
+        <v>0.03250281212402058</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>609198866.2109877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4173848439.825469</v>
+        <v>4224397994.725648</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153547172304815</v>
+        <v>0.1360340395227362</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0409999123101503</v>
+        <v>0.03727259662321103</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>23</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2086924196.100103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1299786468.54179</v>
+        <v>1532420967.013215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1820352585548866</v>
+        <v>0.1275126222707364</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04237380350933444</v>
+        <v>0.04139418404804101</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>649893269.5658011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3806158300.215843</v>
+        <v>4982827166.156665</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1134277392526587</v>
+        <v>0.1007571353119908</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05798513596137339</v>
+        <v>0.05980543504466032</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>28</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1903079217.89915</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2532727888.616953</v>
+        <v>2836141764.222757</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1574065998295485</v>
+        <v>0.1281703828820099</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02946640796128978</v>
+        <v>0.02790661744210439</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1266364008.922273</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4865474583.871965</v>
+        <v>4301870746.098211</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1334468048346729</v>
+        <v>0.1357610986541531</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03672083012991566</v>
+        <v>0.03525358732346983</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2432737423.835135</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3799704985.220108</v>
+        <v>3099121221.302874</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1815220129089497</v>
+        <v>0.1631417765387154</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02464369784417327</v>
+        <v>0.02366111750054998</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1899852458.576698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1340593301.06776</v>
+        <v>1740072627.568305</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1555332844418062</v>
+        <v>0.145954747767406</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04951433765912124</v>
+        <v>0.03869460116377484</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>670296716.2622976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2793753772.76136</v>
+        <v>4248983874.607824</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1716319880216184</v>
+        <v>0.1627651960153635</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02564655175447271</v>
+        <v>0.01999827569078421</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1396876873.394857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1239610922.294739</v>
+        <v>1559354627.300099</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1250738377079148</v>
+        <v>0.1631455148645247</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03814269052671816</v>
+        <v>0.03153705348986424</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>619805515.9247797</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3596077638.817521</v>
+        <v>3715338827.285947</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08507202393296909</v>
+        <v>0.1284736285710631</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04512220283450374</v>
+        <v>0.03105937811651869</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1798038814.710783</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2571852097.900156</v>
+        <v>3647510362.631476</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1523219852394778</v>
+        <v>0.1982201796447195</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02188747514062394</v>
+        <v>0.02117683767201941</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>21</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1285926074.303881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3094748362.330354</v>
+        <v>2540782678.59059</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1744221800775189</v>
+        <v>0.1380139545895879</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02840964231904576</v>
+        <v>0.03060173020721606</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>23</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1547374152.590439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2016799115.662815</v>
+        <v>1485527756.307302</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1567210075941183</v>
+        <v>0.1411135471037468</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0486813530974783</v>
+        <v>0.03011511005262215</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1008399618.295778</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3872457967.699885</v>
+        <v>4754192373.168389</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06811550019518006</v>
+        <v>0.07351373642212736</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04560594545251521</v>
+        <v>0.02969001598665006</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1936229051.824974</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4863371767.633551</v>
+        <v>3709340712.957284</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1466571461955488</v>
+        <v>0.1730274385432904</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02878904283538921</v>
+        <v>0.027902250451111</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>21</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2431685980.303023</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4780851954.444264</v>
+        <v>4062613157.062554</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1701582057741594</v>
+        <v>0.1280071396998236</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02896053463297204</v>
+        <v>0.02586215070439042</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2390425949.106502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4480850370.477112</v>
+        <v>3824007345.263104</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1237418104756677</v>
+        <v>0.1202187713963164</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03222313866679936</v>
+        <v>0.04481652260434252</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2240425184.474191</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2403431231.228982</v>
+        <v>2827479423.886453</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08551542196959261</v>
+        <v>0.0729738808025365</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04174984864201035</v>
+        <v>0.04828460008920472</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1201715684.243393</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3871717050.894047</v>
+        <v>3937985165.757349</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09974216902120329</v>
+        <v>0.1217361950624661</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03975383175804013</v>
+        <v>0.03325658219775345</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1935858513.365853</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1650972595.263625</v>
+        <v>1788074206.341697</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1316726460856006</v>
+        <v>0.1178884672002332</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05249218157225023</v>
+        <v>0.05516436450229846</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>825486257.3785293</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2679306793.365547</v>
+        <v>2436637113.722479</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1018997763812164</v>
+        <v>0.0837532181921663</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04617302528023006</v>
+        <v>0.03825868847863279</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1339653352.71782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4233789573.35633</v>
+        <v>3525019995.398746</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1371799663144319</v>
+        <v>0.1497735545751868</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02528953825703083</v>
+        <v>0.02327932903693054</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>25</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2116894835.102251</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1490058715.777142</v>
+        <v>1585029692.022878</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07519998789160379</v>
+        <v>0.08333242739406421</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03902766204961718</v>
+        <v>0.04001738958318668</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>745029386.3765101</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2484944209.529095</v>
+        <v>2506497925.337617</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09671364149109844</v>
+        <v>0.08957459826229097</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04879539126813863</v>
+        <v>0.0386051509972111</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>26</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1242472147.764793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3220260221.97576</v>
+        <v>3852947708.93704</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1118846583468342</v>
+        <v>0.1528263528013249</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03390004969716302</v>
+        <v>0.02286038394162926</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1610130157.255882</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1806815762.247292</v>
+        <v>1614660485.504347</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1538186454964953</v>
+        <v>0.1574353844197814</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02729231199822459</v>
+        <v>0.0301808161612742</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>903407863.3219045</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4577522063.652381</v>
+        <v>4990174906.099445</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1139773109950456</v>
+        <v>0.1222855146020475</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02453917862279205</v>
+        <v>0.02275365027906017</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2288761040.684011</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1814018796.331569</v>
+        <v>1450456707.711707</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1159960649789929</v>
+        <v>0.1456932764758278</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02202017560679558</v>
+        <v>0.02232389693206828</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>907009432.1189836</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4137722404.702296</v>
+        <v>4731531878.71923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09357760202646857</v>
+        <v>0.1277151123665424</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0502079006066018</v>
+        <v>0.0546484951896109</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>24</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2068861158.109532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1637584458.39214</v>
+        <v>1701007024.522408</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1305771572390786</v>
+        <v>0.1179715780837128</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03043716847909738</v>
+        <v>0.02832949774722805</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>818792287.331298</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4163465327.170249</v>
+        <v>5364525793.315446</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06923789591247673</v>
+        <v>0.109992841839498</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03579562399484211</v>
+        <v>0.03522284517524169</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2081732671.088683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3746877941.439116</v>
+        <v>3211842326.538665</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0890659080845578</v>
+        <v>0.109609434029464</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02846513903817065</v>
+        <v>0.03028469533862128</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1873438924.398308</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5303887624.779305</v>
+        <v>3817665460.400964</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2110055753190396</v>
+        <v>0.1687477639481033</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0286769604612097</v>
+        <v>0.02725086416687201</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2651943779.267121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1936498657.349386</v>
+        <v>1794441989.567131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1126642169356459</v>
+        <v>0.1157105231286462</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03593734400972279</v>
+        <v>0.04001755954507148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>968249305.9841534</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2201164165.561851</v>
+        <v>2536259727.335143</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09029480002871655</v>
+        <v>0.09317419704259478</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03204323688303523</v>
+        <v>0.05098664883999161</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1100582058.218175</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3235170250.107516</v>
+        <v>2627794136.59542</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1344119123104912</v>
+        <v>0.1722759208129761</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05086735006855871</v>
+        <v>0.05606961886470809</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1617585211.062873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2530986241.403019</v>
+        <v>1965754491.684957</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1334347742941673</v>
+        <v>0.1453228050887751</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0181490109943301</v>
+        <v>0.02754475396564725</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1265493222.083587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1212374362.943517</v>
+        <v>1387673259.020284</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1736378322730201</v>
+        <v>0.1322760651564305</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03669469344808003</v>
+        <v>0.0336564054155921</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>606187240.1352334</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3512730226.314557</v>
+        <v>2651168829.855082</v>
       </c>
       <c r="F88" t="n">
-        <v>0.127114178022543</v>
+        <v>0.1751821651352974</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02447278629221646</v>
+        <v>0.03550143291173676</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>27</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1756365194.14587</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2548860724.248205</v>
+        <v>3286367824.530135</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1392632187352743</v>
+        <v>0.150181321326003</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02705004615117104</v>
+        <v>0.03706383699866283</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>23</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1274430433.20205</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1860004931.666166</v>
+        <v>1661067221.264978</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1036446708975187</v>
+        <v>0.09276040466115561</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04035948095469802</v>
+        <v>0.03422148818986304</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>930002510.3824832</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1992149413.966732</v>
+        <v>1906229040.380861</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1815411715194049</v>
+        <v>0.1293272728133426</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04898716448064555</v>
+        <v>0.04684600886802363</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>996074680.2017292</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2155258376.06562</v>
+        <v>2451351135.102051</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08151707096709877</v>
+        <v>0.1056822052252219</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03692111688257745</v>
+        <v>0.03483199995383442</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1077629145.837471</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5011982522.18814</v>
+        <v>4449245109.059633</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1166239033892493</v>
+        <v>0.135835918727969</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04043857147479161</v>
+        <v>0.05218773775937082</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2505991196.19952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2107671139.211531</v>
+        <v>2291632960.616045</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1060788394145214</v>
+        <v>0.1602299795685631</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04117671277764492</v>
+        <v>0.02844866721940619</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1053835581.851853</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2809022230.125002</v>
+        <v>3015917807.361281</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1316366783338015</v>
+        <v>0.1370880440828515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03690793989596682</v>
+        <v>0.03493958277592943</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1404511128.577899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1531072619.793201</v>
+        <v>2392009118.712354</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09010197354837537</v>
+        <v>0.1310546834139546</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0453736310765737</v>
+        <v>0.03736021404096207</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>765536346.8244941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4050644743.794644</v>
+        <v>5249679688.076203</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1439919188729139</v>
+        <v>0.1147780555076342</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01897178236139971</v>
+        <v>0.02262308142989489</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>22</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2025322432.262046</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2772346602.504438</v>
+        <v>2647629185.532422</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09509338255534534</v>
+        <v>0.1148723717334032</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02935121761516843</v>
+        <v>0.02676431661161535</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>18</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1386173270.405475</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2607759247.0343</v>
+        <v>2595186909.757138</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09966032810464842</v>
+        <v>0.09437278154215072</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02743142186652749</v>
+        <v>0.02988005533203255</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1303879580.925736</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2908873887.354641</v>
+        <v>2923627029.768131</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1490642482273841</v>
+        <v>0.1435469803866966</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02689368978972165</v>
+        <v>0.02346018502979346</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>21</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1454436927.152259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2339043904.642472</v>
+        <v>3113661869.601825</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1407752602237433</v>
+        <v>0.1583105359140448</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03777593323686088</v>
+        <v>0.05077852628776277</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>29</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1169521953.924422</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_68.xlsx
+++ b/output/fit_clients/fit_round_68.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2311931318.136755</v>
+        <v>1673681864.064475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1105530122672963</v>
+        <v>0.1003377907967474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03064174945566903</v>
+        <v>0.03086102733961191</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2432698892.182645</v>
+        <v>2555268965.964489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1123345706231481</v>
+        <v>0.1845345405724118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03681265977103845</v>
+        <v>0.04491556889707381</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4333524385.77585</v>
+        <v>3273160071.931733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1119973931190866</v>
+        <v>0.1458551965382127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02800539345851296</v>
+        <v>0.03733247346797157</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3523680199.98869</v>
+        <v>2966865293.678918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07055718063311379</v>
+        <v>0.08830980430226901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03722295157538951</v>
+        <v>0.03416288233164613</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2436307673.837891</v>
+        <v>2367687387.928544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1054899827377586</v>
+        <v>0.1491542381369548</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03710591310858804</v>
+        <v>0.0392565121588231</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2994098138.512077</v>
+        <v>2099781284.142029</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08667326830740228</v>
+        <v>0.08087674483425608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0356580708815061</v>
+        <v>0.0459102150673897</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2915633099.400456</v>
+        <v>3035698691.707173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1641910745780677</v>
+        <v>0.1851772057067658</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03284942606139241</v>
+        <v>0.02266289524887803</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2054994402.506909</v>
+        <v>2157395442.476674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1952892788814619</v>
+        <v>0.1324223041271214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02903859888555993</v>
+        <v>0.02889433106791948</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3911810595.556102</v>
+        <v>4373245399.586996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2121995321008833</v>
+        <v>0.1681799626544933</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03533940064652326</v>
+        <v>0.04886644072262002</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4006354611.975942</v>
+        <v>3314030034.272596</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1466312305490321</v>
+        <v>0.1774701961813595</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04211598761352468</v>
+        <v>0.03342727628785325</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2304813930.563713</v>
+        <v>3055817768.955578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1874129903954803</v>
+        <v>0.1505432875380151</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04044409106849384</v>
+        <v>0.04533782657081917</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4379484732.581038</v>
+        <v>3327212784.581405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08548668228382407</v>
+        <v>0.06654804395136799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01914962083666237</v>
+        <v>0.03088902663136956</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3110045651.34538</v>
+        <v>2897811354.434003</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1468125263756357</v>
+        <v>0.125087571051487</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02952239592486397</v>
+        <v>0.03419412801926311</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1743559292.196767</v>
+        <v>1110938605.411737</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1047875271318626</v>
+        <v>0.08917475115452216</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04713829235820132</v>
+        <v>0.0359282880457398</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2004990932.705609</v>
+        <v>1950535924.645809</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1030173754036474</v>
+        <v>0.09178124915296212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04432530795948324</v>
+        <v>0.0489330362894858</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4668221367.998222</v>
+        <v>3988290079.918052</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1104196319435458</v>
+        <v>0.1445910142329877</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03399126064298554</v>
+        <v>0.04467582771143611</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3503390250.762099</v>
+        <v>3593907223.838105</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1843283893359673</v>
+        <v>0.1215847650200444</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02641084126277068</v>
+        <v>0.02945749783447242</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212447718.357016</v>
+        <v>1059053669.620163</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1313044563574813</v>
+        <v>0.178895091519157</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01719806818642911</v>
+        <v>0.02112033835939242</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2681579777.0919</v>
+        <v>1725035121.738796</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1200342116573384</v>
+        <v>0.1551048973194353</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02980673287811455</v>
+        <v>0.03180546663285363</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2042832669.191028</v>
+        <v>2053511601.118751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07673857355424969</v>
+        <v>0.07101007517387198</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0319181558076438</v>
+        <v>0.03857213643067825</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3785084941.643826</v>
+        <v>3477560537.951268</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1199676843314219</v>
+        <v>0.1092960857283877</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03947163688154993</v>
+        <v>0.0482360457938269</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1311285868.579894</v>
+        <v>1421404381.906406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602364702616509</v>
+        <v>0.1808745958426974</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04070112452708572</v>
+        <v>0.04221381527403126</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3430700753.482947</v>
+        <v>3054307963.829856</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1471966332718131</v>
+        <v>0.1381586106034188</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03153012149262586</v>
+        <v>0.03646417784285477</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>945622497.5583847</v>
+        <v>1256680664.79876</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08568503823635096</v>
+        <v>0.07798279673955714</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02698521288998925</v>
+        <v>0.01959467067754857</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1125961882.965886</v>
+        <v>1379135917.211424</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07591005384696767</v>
+        <v>0.07909628241195178</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02461979982671091</v>
+        <v>0.03323644858291585</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4045898082.270926</v>
+        <v>3655192689.173464</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1483879630449688</v>
+        <v>0.1581228199024391</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02045284655160369</v>
+        <v>0.02090074810907047</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3648356012.616852</v>
+        <v>3094894862.753833</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1313720620639676</v>
+        <v>0.09935306007409604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04127335764887356</v>
+        <v>0.03878692463688668</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3801086641.25686</v>
+        <v>5625217316.45841</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1499060081655853</v>
+        <v>0.1487444196830277</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04062884497582916</v>
+        <v>0.03057783084029148</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1567904092.913878</v>
+        <v>2122179626.07343</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129904980595812</v>
+        <v>0.1366034233651074</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03315241004969518</v>
+        <v>0.02829555248780704</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1384956226.19576</v>
+        <v>1089068981.365005</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09274766916736456</v>
+        <v>0.1060965614534688</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04016766935992115</v>
+        <v>0.03713760820209836</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1529751138.308421</v>
+        <v>1333443594.193288</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1165790897094783</v>
+        <v>0.08174752306639958</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03296796171992845</v>
+        <v>0.02365776689149017</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2055529667.098809</v>
+        <v>2019185545.846587</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1325005020729392</v>
+        <v>0.1729442830474446</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05345436911026089</v>
+        <v>0.05473265563902496</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1334635304.980096</v>
+        <v>1330733739.808322</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0793422691638115</v>
+        <v>0.1072881634041899</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02253036879297925</v>
+        <v>0.02560377223344674</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1182228633.833399</v>
+        <v>838671525.5452061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08826963981413329</v>
+        <v>0.07817460424632938</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03376356295421137</v>
+        <v>0.03732202781407812</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1967924936.652728</v>
+        <v>2670822159.696945</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1134114624535123</v>
+        <v>0.1812779753550355</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02788900168125487</v>
+        <v>0.02202942571749072</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1795942406.722814</v>
+        <v>1782999828.792112</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0689671095734412</v>
+        <v>0.09736670297835108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03629468794980183</v>
+        <v>0.03612644557358567</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699076881.443643</v>
+        <v>1942761046.756335</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07876648783697759</v>
+        <v>0.1186240408786095</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02651118991774457</v>
+        <v>0.03428310126380495</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1616609806.117284</v>
+        <v>1495840002.470684</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1702012118262952</v>
+        <v>0.1190137946238266</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02603320288806485</v>
+        <v>0.0272394579472385</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1469031772.934215</v>
+        <v>1591312751.171341</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1234049568437999</v>
+        <v>0.1465046201403631</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05774269579195233</v>
+        <v>0.04416969973331945</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2246210394.635726</v>
+        <v>1935025018.585082</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1488475210333728</v>
+        <v>0.1270799366933176</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04468362114424095</v>
+        <v>0.04275192854211098</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3747388555.584056</v>
+        <v>3241105258.982322</v>
       </c>
       <c r="F42" t="n">
-        <v>0.092729236104656</v>
+        <v>0.09707529366106055</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03701611699008837</v>
+        <v>0.03202187221209459</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2397473572.21104</v>
+        <v>2143127968.796023</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1722215266035922</v>
+        <v>0.1572392229713821</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01837142035047756</v>
+        <v>0.01799178031413324</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2181066463.139097</v>
+        <v>1498141887.862684</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0743452884720725</v>
+        <v>0.06883528526252776</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03586629289768517</v>
+        <v>0.02743334754673537</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2488137799.963633</v>
+        <v>2319919625.353597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1418426466264837</v>
+        <v>0.1457484123279383</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04564090084399108</v>
+        <v>0.0424724820786724</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3995716932.951626</v>
+        <v>4485931133.086452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1559548088648192</v>
+        <v>0.1452823010624495</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04640473466765416</v>
+        <v>0.05347150468955616</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3996511509.477731</v>
+        <v>3899266857.851182</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1618440650039105</v>
+        <v>0.1859944950217294</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04654123876170087</v>
+        <v>0.05780526548174048</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3975467653.66398</v>
+        <v>3471222478.45853</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06720462004775189</v>
+        <v>0.1022534156519836</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03267206404169426</v>
+        <v>0.02864190352085911</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1247643055.944223</v>
+        <v>1314125118.091629</v>
       </c>
       <c r="F49" t="n">
-        <v>0.166604173465485</v>
+        <v>0.1606110608871421</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03250281212402058</v>
+        <v>0.02720507908026389</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4224397994.725648</v>
+        <v>3052482950.399741</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1360340395227362</v>
+        <v>0.1514531439880503</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03727259662321103</v>
+        <v>0.03307795871974391</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1532420967.013215</v>
+        <v>1467657695.672034</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1275126222707364</v>
+        <v>0.1928149211546599</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04139418404804101</v>
+        <v>0.051107209868202</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4982827166.156665</v>
+        <v>4576613887.739062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1007571353119908</v>
+        <v>0.1020092693469346</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05980543504466032</v>
+        <v>0.05226477466733859</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2836141764.222757</v>
+        <v>2583023288.425814</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1281703828820099</v>
+        <v>0.194535501208054</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02790661744210439</v>
+        <v>0.02550966894321862</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4301870746.098211</v>
+        <v>3806126275.495114</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1357610986541531</v>
+        <v>0.14709923073672</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03525358732346983</v>
+        <v>0.0337481988300222</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3099121221.302874</v>
+        <v>3789167996.483783</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1631417765387154</v>
+        <v>0.1490079358966409</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02366111750054998</v>
+        <v>0.02780807090689189</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1740072627.568305</v>
+        <v>1847026550.239127</v>
       </c>
       <c r="F56" t="n">
-        <v>0.145954747767406</v>
+        <v>0.1153044547455489</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03869460116377484</v>
+        <v>0.05011149916441875</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4248983874.607824</v>
+        <v>3012185080.374245</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1627651960153635</v>
+        <v>0.1212049102041197</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01999827569078421</v>
+        <v>0.02602523318568644</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1559354627.300099</v>
+        <v>1595899522.904623</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1631455148645247</v>
+        <v>0.1329267052169953</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03153705348986424</v>
+        <v>0.03131802112038341</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3715338827.285947</v>
+        <v>3294211902.779605</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284736285710631</v>
+        <v>0.1041558043967809</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03105937811651869</v>
+        <v>0.03873647321545649</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3647510362.631476</v>
+        <v>3779916896.048897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1982201796447195</v>
+        <v>0.16745000181644</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02117683767201941</v>
+        <v>0.03022091073703543</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2540782678.59059</v>
+        <v>2683313726.443492</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1380139545895879</v>
+        <v>0.1468305004681915</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03060173020721606</v>
+        <v>0.02945070548345132</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1485527756.307302</v>
+        <v>1629442707.569006</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1411135471037468</v>
+        <v>0.1680246563440896</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03011511005262215</v>
+        <v>0.03667284053792293</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4754192373.168389</v>
+        <v>4364885671.844688</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07351373642212736</v>
+        <v>0.08640365985053057</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02969001598665006</v>
+        <v>0.04186918350099869</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3709340712.957284</v>
+        <v>5403843892.850715</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1730274385432904</v>
+        <v>0.1605284560104558</v>
       </c>
       <c r="G64" t="n">
-        <v>0.027902250451111</v>
+        <v>0.02342837674325367</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4062613157.062554</v>
+        <v>5064471589.270977</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1280071396998236</v>
+        <v>0.1132503989229273</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02586215070439042</v>
+        <v>0.01997286153130069</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3824007345.263104</v>
+        <v>5256082486.656837</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1202187713963164</v>
+        <v>0.1349532411730564</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04481652260434252</v>
+        <v>0.03780237572731807</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2827479423.886453</v>
+        <v>2540758282.725477</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0729738808025365</v>
+        <v>0.08153555242064717</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04828460008920472</v>
+        <v>0.04415011766161099</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3937985165.757349</v>
+        <v>5623981083.943737</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1217361950624661</v>
+        <v>0.1562876202833646</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03325658219775345</v>
+        <v>0.03518864349730525</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1788074206.341697</v>
+        <v>1632581923.592914</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1178884672002332</v>
+        <v>0.129516580985218</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05516436450229846</v>
+        <v>0.05074793727648429</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2436637113.722479</v>
+        <v>2434183017.248237</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0837532181921663</v>
+        <v>0.09645982247993444</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03825868847863279</v>
+        <v>0.03017969923730082</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3525019995.398746</v>
+        <v>4532991878.929609</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1497735545751868</v>
+        <v>0.1267121447703605</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02327932903693054</v>
+        <v>0.03396417133124491</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1585029692.022878</v>
+        <v>1849271267.332316</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08333242739406421</v>
+        <v>0.09882379470812763</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04001738958318668</v>
+        <v>0.04261352147329305</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2506497925.337617</v>
+        <v>2455941990.917066</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08957459826229097</v>
+        <v>0.07828321223429047</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0386051509972111</v>
+        <v>0.03339077699045097</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3852947708.93704</v>
+        <v>4028022922.167405</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1528263528013249</v>
+        <v>0.1508944871340262</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02286038394162926</v>
+        <v>0.03054325773169417</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1614660485.504347</v>
+        <v>2324664448.651597</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1574353844197814</v>
+        <v>0.157551467752195</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0301808161612742</v>
+        <v>0.02975692634267602</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4990174906.099445</v>
+        <v>4068908530.769611</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1222855146020475</v>
+        <v>0.1034454786529185</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02275365027906017</v>
+        <v>0.02684978469284132</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1450456707.711707</v>
+        <v>1855531735.00119</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1456932764758278</v>
+        <v>0.1489431729181146</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02232389693206828</v>
+        <v>0.02025923746592711</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4731531878.71923</v>
+        <v>4643643382.352336</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1277151123665424</v>
+        <v>0.08603655159471758</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0546484951896109</v>
+        <v>0.03892519987016949</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1701007024.522408</v>
+        <v>1667357015.484717</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1179715780837128</v>
+        <v>0.1601220808616719</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02832949774722805</v>
+        <v>0.03517135957074634</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5364525793.315446</v>
+        <v>5156843339.297478</v>
       </c>
       <c r="F80" t="n">
-        <v>0.109992841839498</v>
+        <v>0.07864873174604642</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03522284517524169</v>
+        <v>0.03531740038316154</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3211842326.538665</v>
+        <v>5184027800.629679</v>
       </c>
       <c r="F81" t="n">
-        <v>0.109609434029464</v>
+        <v>0.1121223549118673</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03028469533862128</v>
+        <v>0.02747573784232936</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3817665460.400964</v>
+        <v>3974112179.814562</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1687477639481033</v>
+        <v>0.1308391843853139</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02725086416687201</v>
+        <v>0.01937170578144921</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1794441989.567131</v>
+        <v>2323903331.048068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1157105231286462</v>
+        <v>0.1576343035128736</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04001755954507148</v>
+        <v>0.03427434849732506</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2536259727.335143</v>
+        <v>1796161278.740319</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09317419704259478</v>
+        <v>0.08091443899208166</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05098664883999161</v>
+        <v>0.04052641591199879</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2627794136.59542</v>
+        <v>2998890654.969689</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1722759208129761</v>
+        <v>0.1581990754169101</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05606961886470809</v>
+        <v>0.04018207585285574</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1965754491.684957</v>
+        <v>1769479705.617878</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1453228050887751</v>
+        <v>0.1283936756737423</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02754475396564725</v>
+        <v>0.02008980257421482</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1387673259.020284</v>
+        <v>1312852389.970303</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1322760651564305</v>
+        <v>0.1518910218582945</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0336564054155921</v>
+        <v>0.02925912101269964</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2651168829.855082</v>
+        <v>3497467653.984514</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1751821651352974</v>
+        <v>0.1351710582065142</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03550143291173676</v>
+        <v>0.02906805230562293</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3286367824.530135</v>
+        <v>2483452459.080362</v>
       </c>
       <c r="F89" t="n">
-        <v>0.150181321326003</v>
+        <v>0.1285213301538725</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03706383699866283</v>
+        <v>0.03670825225664625</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1661067221.264978</v>
+        <v>1953646040.129404</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09276040466115561</v>
+        <v>0.1267834959835745</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03422148818986304</v>
+        <v>0.04228643226706281</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1906229040.380861</v>
+        <v>1923984324.011548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1293272728133426</v>
+        <v>0.152984547280156</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04684600886802363</v>
+        <v>0.03852684266944677</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2451351135.102051</v>
+        <v>1813023814.791568</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1056822052252219</v>
+        <v>0.098274465335369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03483199995383442</v>
+        <v>0.0407178139307948</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4449245109.059633</v>
+        <v>4270639143.248226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.135835918727969</v>
+        <v>0.1277377653967758</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05218773775937082</v>
+        <v>0.04042896152868396</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2291632960.616045</v>
+        <v>2156339101.261796</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1602299795685631</v>
+        <v>0.1306516005238609</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02844866721940619</v>
+        <v>0.03586201478524011</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3015917807.361281</v>
+        <v>2142100417.996648</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1370880440828515</v>
+        <v>0.1355508043259015</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03493958277592943</v>
+        <v>0.03780060868327406</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2392009118.712354</v>
+        <v>2049383609.660943</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1310546834139546</v>
+        <v>0.08795292467589601</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03736021404096207</v>
+        <v>0.03253962245008433</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5249679688.076203</v>
+        <v>4230428305.865509</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1147780555076342</v>
+        <v>0.131074200316658</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02262308142989489</v>
+        <v>0.02832813531323505</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2647629185.532422</v>
+        <v>3637898375.619648</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1148723717334032</v>
+        <v>0.1158160408918669</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02676431661161535</v>
+        <v>0.03154997302917098</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2595186909.757138</v>
+        <v>3426130955.443944</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09437278154215072</v>
+        <v>0.1310776912924669</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02988005533203255</v>
+        <v>0.02517014792564858</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2923627029.768131</v>
+        <v>3828367054.809803</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1435469803866966</v>
+        <v>0.1406925580282306</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02346018502979346</v>
+        <v>0.01808326346464917</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3113661869.601825</v>
+        <v>2963253141.655135</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1583105359140448</v>
+        <v>0.1386127973498972</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05077852628776277</v>
+        <v>0.05212307196246694</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_68.xlsx
+++ b/output/fit_clients/fit_round_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1673681864.064475</v>
+        <v>1889853492.89066</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1003377907967474</v>
+        <v>0.1054605821891978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03086102733961191</v>
+        <v>0.03649515878674826</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2555268965.964489</v>
+        <v>2384253443.141252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1845345405724118</v>
+        <v>0.1680657572181075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04491556889707381</v>
+        <v>0.04909876908010333</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3273160071.931733</v>
+        <v>3370305950.434059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1458551965382127</v>
+        <v>0.1529946171387043</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03733247346797157</v>
+        <v>0.02410704086071979</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2966865293.678918</v>
+        <v>3128548749.472493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08830980430226901</v>
+        <v>0.09357806189102118</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03416288233164613</v>
+        <v>0.04529765711478077</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2367687387.928544</v>
+        <v>2317309753.763143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1491542381369548</v>
+        <v>0.09130559718439879</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0392565121588231</v>
+        <v>0.04967889864464652</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2099781284.142029</v>
+        <v>2456975330.35501</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08087674483425608</v>
+        <v>0.07987929152851007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0459102150673897</v>
+        <v>0.0484268439857336</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3035698691.707173</v>
+        <v>2857077375.356671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1851772057067658</v>
+        <v>0.1506657749838315</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02266289524887803</v>
+        <v>0.0314071970253611</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2157395442.476674</v>
+        <v>1954663362.728292</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1324223041271214</v>
+        <v>0.1201813571131673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02889433106791948</v>
+        <v>0.03222527493622984</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4373245399.586996</v>
+        <v>4982875446.772866</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1681799626544933</v>
+        <v>0.1899355109917335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04886644072262002</v>
+        <v>0.05257531066672116</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>68</v>
+      </c>
+      <c r="K10" t="n">
+        <v>207.6487430468167</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3314030034.272596</v>
+        <v>2578901761.727901</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1774701961813595</v>
+        <v>0.1499126818950348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03342727628785325</v>
+        <v>0.04412352084173771</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3055817768.955578</v>
+        <v>2565662254.722399</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1505432875380151</v>
+        <v>0.1946522338116094</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04533782657081917</v>
+        <v>0.04920552979724181</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3327212784.581405</v>
+        <v>4805557197.00706</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06654804395136799</v>
+        <v>0.090400005594161</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03088902663136956</v>
+        <v>0.02128135879294752</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>67</v>
+      </c>
+      <c r="K13" t="n">
+        <v>184.57315689032</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2897811354.434003</v>
+        <v>2390247696.906363</v>
       </c>
       <c r="F14" t="n">
-        <v>0.125087571051487</v>
+        <v>0.12065440052651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03419412801926311</v>
+        <v>0.03701722173752495</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1110938605.411737</v>
+        <v>1447352068.380606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08917475115452216</v>
+        <v>0.096370171351286</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0359282880457398</v>
+        <v>0.04488719333810507</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1950535924.645809</v>
+        <v>1926555422.326759</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09178124915296212</v>
+        <v>0.07475884666011955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0489330362894858</v>
+        <v>0.03512689143372701</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3988290079.918052</v>
+        <v>4224380595.839532</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1445910142329877</v>
+        <v>0.1599590082548126</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04467582771143611</v>
+        <v>0.04629795793103467</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>67</v>
+      </c>
+      <c r="K17" t="n">
+        <v>165.7153378718273</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3593907223.838105</v>
+        <v>3559317186.004708</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215847650200444</v>
+        <v>0.1338791684477061</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02945749783447242</v>
+        <v>0.02777029851400616</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>67</v>
+      </c>
+      <c r="K18" t="n">
+        <v>162.9165910623527</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1059053669.620163</v>
+        <v>1369234575.100748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.178895091519157</v>
+        <v>0.1642854470069596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02112033835939242</v>
+        <v>0.01672453406460402</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1725035121.738796</v>
+        <v>2736232091.814577</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1551048973194353</v>
+        <v>0.1274132479451816</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03180546663285363</v>
+        <v>0.02703171628807769</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2053511601.118751</v>
+        <v>1723852410.877127</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07101007517387198</v>
+        <v>0.07559592583920048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03857213643067825</v>
+        <v>0.03599078195378248</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3477560537.951268</v>
+        <v>4036831831.858985</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1092960857283877</v>
+        <v>0.09934520251879642</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0482360457938269</v>
+        <v>0.04572335139296359</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>67</v>
+      </c>
+      <c r="K22" t="n">
+        <v>165.0919227504105</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1421404381.906406</v>
+        <v>1322337290.655304</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1808745958426974</v>
+        <v>0.171978783843416</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04221381527403126</v>
+        <v>0.03432185451149602</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3054307963.829856</v>
+        <v>3105172484.093014</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1381586106034188</v>
+        <v>0.1342115446981675</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03646417784285477</v>
+        <v>0.02566666173828866</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>67</v>
+      </c>
+      <c r="K24" t="n">
+        <v>118.842633411235</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1256680664.79876</v>
+        <v>1040509978.263904</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07798279673955714</v>
+        <v>0.09628976443988568</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01959467067754857</v>
+        <v>0.03046801225641499</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1379135917.211424</v>
+        <v>1240646418.027704</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07909628241195178</v>
+        <v>0.1075628885197089</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03323644858291585</v>
+        <v>0.03756066890043409</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3655192689.173464</v>
+        <v>3181861728.862155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1581228199024391</v>
+        <v>0.1242961302468424</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02090074810907047</v>
+        <v>0.01955067113557987</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3094894862.753833</v>
+        <v>3756159992.983988</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09935306007409604</v>
+        <v>0.09820019096965578</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03878692463688668</v>
+        <v>0.03718923221102047</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>68</v>
+      </c>
+      <c r="K28" t="n">
+        <v>189.6364047483394</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5625217316.45841</v>
+        <v>5343698754.361825</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1487444196830277</v>
+        <v>0.1154992106395726</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03057783084029148</v>
+        <v>0.03850854977078041</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>62</v>
+      </c>
+      <c r="J29" t="n">
+        <v>68</v>
+      </c>
+      <c r="K29" t="n">
+        <v>215.1434045717125</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2122179626.07343</v>
+        <v>1489843751.98555</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1366034233651074</v>
+        <v>0.09054434914211787</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02829555248780704</v>
+        <v>0.02952014348238528</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1089068981.365005</v>
+        <v>1265099203.925741</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1060965614534688</v>
+        <v>0.07960270537866064</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03713760820209836</v>
+        <v>0.04626007003160208</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1333443594.193288</v>
+        <v>1162241712.220656</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08174752306639958</v>
+        <v>0.08999516315619241</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02365776689149017</v>
+        <v>0.0278971579754005</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2019185545.846587</v>
+        <v>3117918423.93519</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1729442830474446</v>
+        <v>0.1448894660427605</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05473265563902496</v>
+        <v>0.04319499684109351</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1330733739.808322</v>
+        <v>1350432755.933547</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1072881634041899</v>
+        <v>0.09807119655673047</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02560377223344674</v>
+        <v>0.02178687241467099</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>838671525.5452061</v>
+        <v>952197313.8790643</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07817460424632938</v>
+        <v>0.1160091377623943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03732202781407812</v>
+        <v>0.03597773247930794</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2670822159.696945</v>
+        <v>3108386593.339896</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1812779753550355</v>
+        <v>0.1425926447037183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02202942571749072</v>
+        <v>0.02262669136046903</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1782999828.792112</v>
+        <v>2869891923.718866</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09736670297835108</v>
+        <v>0.06822847519332864</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03612644557358567</v>
+        <v>0.02756498664164704</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1942761046.756335</v>
+        <v>2162804940.576413</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1186240408786095</v>
+        <v>0.1120431003605029</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03428310126380495</v>
+        <v>0.03205163261568794</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1495840002.470684</v>
+        <v>1852319565.43353</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1190137946238266</v>
+        <v>0.1636893311501704</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0272394579472385</v>
+        <v>0.02347686783574113</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1591312751.171341</v>
+        <v>1228155137.275739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1465046201403631</v>
+        <v>0.1296454156250659</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04416969973331945</v>
+        <v>0.0543216088026096</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1935025018.585082</v>
+        <v>1970832274.06492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1270799366933176</v>
+        <v>0.1381602092452497</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04275192854211098</v>
+        <v>0.04368615004928411</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3241105258.982322</v>
+        <v>3441345270.057304</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09707529366106055</v>
+        <v>0.1030726505302966</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03202187221209459</v>
+        <v>0.03022655862331958</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>68</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2143127968.796023</v>
+        <v>3072011595.610283</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1572392229713821</v>
+        <v>0.145925846847051</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01799178031413324</v>
+        <v>0.01762478617389436</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1498141887.862684</v>
+        <v>2120715876.006071</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06883528526252776</v>
+        <v>0.08739355270718277</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02743334754673537</v>
+        <v>0.02718057942726423</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2319919625.353597</v>
+        <v>1936821399.943596</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1457484123279383</v>
+        <v>0.185457790543856</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0424724820786724</v>
+        <v>0.05268779460080942</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4485931133.086452</v>
+        <v>3585110212.514867</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1452823010624495</v>
+        <v>0.157498646572743</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05347150468955616</v>
+        <v>0.05050127044402708</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>40</v>
+      </c>
+      <c r="J46" t="n">
+        <v>68</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3899266857.851182</v>
+        <v>4541908712.67545</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1859944950217294</v>
+        <v>0.1937874996211047</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05780526548174048</v>
+        <v>0.049074437379085</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>30</v>
+      </c>
+      <c r="J47" t="n">
+        <v>67</v>
+      </c>
+      <c r="K47" t="n">
+        <v>155.3363938646093</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3471222478.45853</v>
+        <v>3592276349.206501</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1022534156519836</v>
+        <v>0.09222967039160464</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02864190352085911</v>
+        <v>0.02897026702528785</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>68</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1314125118.091629</v>
+        <v>1946305568.978543</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1606110608871421</v>
+        <v>0.1344306164636316</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02720507908026389</v>
+        <v>0.03991200256557408</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3052482950.399741</v>
+        <v>2586758253.884237</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1514531439880503</v>
+        <v>0.1161877474434606</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03307795871974391</v>
+        <v>0.03844370723157899</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>67</v>
+      </c>
+      <c r="K50" t="n">
+        <v>87.56574710419962</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1467657695.672034</v>
+        <v>1230952285.206131</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1928149211546599</v>
+        <v>0.1315469234009524</v>
       </c>
       <c r="G51" t="n">
-        <v>0.051107209868202</v>
+        <v>0.04539104887555809</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4576613887.739062</v>
+        <v>4466336622.12357</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1020092693469346</v>
+        <v>0.09275271876597004</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05226477466733859</v>
+        <v>0.04689012611682494</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>54</v>
+      </c>
+      <c r="J52" t="n">
+        <v>68</v>
+      </c>
+      <c r="K52" t="n">
+        <v>194.8331485197406</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2583023288.425814</v>
+        <v>3185408471.842098</v>
       </c>
       <c r="F53" t="n">
-        <v>0.194535501208054</v>
+        <v>0.1722737560769986</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02550966894321862</v>
+        <v>0.02694767438819913</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3806126275.495114</v>
+        <v>3179465016.651458</v>
       </c>
       <c r="F54" t="n">
-        <v>0.14709923073672</v>
+        <v>0.1689025487312392</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0337481988300222</v>
+        <v>0.0508015930095022</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>67</v>
+      </c>
+      <c r="K54" t="n">
+        <v>131.1203937492603</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3789167996.483783</v>
+        <v>3566539621.613903</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1490079358966409</v>
+        <v>0.1764260939020548</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02780807090689189</v>
+        <v>0.02717287273702543</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>31</v>
+      </c>
+      <c r="J55" t="n">
+        <v>68</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1847026550.239127</v>
+        <v>1630234124.615273</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1153044547455489</v>
+        <v>0.1159034725504169</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05011149916441875</v>
+        <v>0.05452707545862481</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3012185080.374245</v>
+        <v>3105755582.44238</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1212049102041197</v>
+        <v>0.1392151633210138</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02602523318568644</v>
+        <v>0.02338058522078003</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>65</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1595899522.904623</v>
+        <v>1891620132.982936</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1329267052169953</v>
+        <v>0.1281262789317316</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03131802112038341</v>
+        <v>0.02996816243734313</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3294211902.779605</v>
+        <v>3352889454.37512</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1041558043967809</v>
+        <v>0.1114077978633677</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03873647321545649</v>
+        <v>0.03427674916707024</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>33</v>
+      </c>
+      <c r="J59" t="n">
+        <v>67</v>
+      </c>
+      <c r="K59" t="n">
+        <v>130.766834145532</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3779916896.048897</v>
+        <v>3111950140.645001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.16745000181644</v>
+        <v>0.1818766691599621</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03022091073703543</v>
+        <v>0.02049747181164291</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2683313726.443492</v>
+        <v>2798195981.701823</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1468305004681915</v>
+        <v>0.1684673434013489</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02945070548345132</v>
+        <v>0.02157558126347337</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1629442707.569006</v>
+        <v>1600743197.445062</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1680246563440896</v>
+        <v>0.1498335962440141</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03667284053792293</v>
+        <v>0.04049366105890025</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4364885671.844688</v>
+        <v>3890157504.733922</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08640365985053057</v>
+        <v>0.0769030492432821</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04186918350099869</v>
+        <v>0.02918628153611318</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>33</v>
+      </c>
+      <c r="J63" t="n">
+        <v>68</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5403843892.850715</v>
+        <v>4969704560.200573</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1605284560104558</v>
+        <v>0.1858335350590483</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02342837674325367</v>
+        <v>0.02485333239082893</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>33</v>
+      </c>
+      <c r="J64" t="n">
+        <v>68</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5064471589.270977</v>
+        <v>5797630062.288973</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1132503989229273</v>
+        <v>0.1099429163449806</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01997286153130069</v>
+        <v>0.02110900035683567</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>53</v>
+      </c>
+      <c r="J65" t="n">
+        <v>68</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5256082486.656837</v>
+        <v>3956091146.338353</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1349532411730564</v>
+        <v>0.1342746778627971</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03780237572731807</v>
+        <v>0.04525018462199872</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>33</v>
+      </c>
+      <c r="J66" t="n">
+        <v>68</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2540758282.725477</v>
+        <v>3056473406.63666</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08153555242064717</v>
+        <v>0.07935028934159542</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04415011766161099</v>
+        <v>0.04043497874715122</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5623981083.943737</v>
+        <v>4912137973.050773</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1562876202833646</v>
+        <v>0.1430416592864187</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03518864349730525</v>
+        <v>0.05160911560219781</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>34</v>
+      </c>
+      <c r="J68" t="n">
+        <v>67</v>
+      </c>
+      <c r="K68" t="n">
+        <v>174.5999278334291</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1632581923.592914</v>
+        <v>2232825052.800392</v>
       </c>
       <c r="F69" t="n">
-        <v>0.129516580985218</v>
+        <v>0.1311726375571516</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05074793727648429</v>
+        <v>0.05919709394679924</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2434183017.248237</v>
+        <v>2556229522.920578</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09645982247993444</v>
+        <v>0.1008488441857581</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03017969923730082</v>
+        <v>0.04785089885054602</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4532991878.929609</v>
+        <v>4608818151.906665</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1267121447703605</v>
+        <v>0.1792662798107988</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03396417133124491</v>
+        <v>0.02441580669160868</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>56</v>
+      </c>
+      <c r="J71" t="n">
+        <v>67</v>
+      </c>
+      <c r="K71" t="n">
+        <v>189.1164611816501</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1849271267.332316</v>
+        <v>1713877069.733309</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09882379470812763</v>
+        <v>0.09550973646858946</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04261352147329305</v>
+        <v>0.05034041972985195</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2455941990.917066</v>
+        <v>3418028888.397915</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07828321223429047</v>
+        <v>0.07028851282506704</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03339077699045097</v>
+        <v>0.04911842191548505</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>68</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4028022922.167405</v>
+        <v>3060645256.385896</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1508944871340262</v>
+        <v>0.1712188125754207</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03054325773169417</v>
+        <v>0.03370447304313086</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>66</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2324664448.651597</v>
+        <v>1658791232.204086</v>
       </c>
       <c r="F75" t="n">
-        <v>0.157551467752195</v>
+        <v>0.1218591377431592</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02975692634267602</v>
+        <v>0.03582017531824624</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4068908530.769611</v>
+        <v>3318197069.84291</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1034454786529185</v>
+        <v>0.09005785895700673</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02684978469284132</v>
+        <v>0.02310958752996419</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>31</v>
+      </c>
+      <c r="J76" t="n">
+        <v>66</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1855531735.00119</v>
+        <v>1708660227.394495</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1489431729181146</v>
+        <v>0.122906174433068</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02025923746592711</v>
+        <v>0.02592118017987293</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4643643382.352336</v>
+        <v>3740974214.173582</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08603655159471758</v>
+        <v>0.1248829593061039</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03892519987016949</v>
+        <v>0.0406605056970527</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>68</v>
+      </c>
+      <c r="K78" t="n">
+        <v>189.9360712599392</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1667357015.484717</v>
+        <v>1367827297.312639</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1601220808616719</v>
+        <v>0.1435387644381631</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03517135957074634</v>
+        <v>0.03618074734106147</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5156843339.297478</v>
+        <v>4249731747.681575</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07864873174604642</v>
+        <v>0.0756664994726693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03531740038316154</v>
+        <v>0.02509436069406368</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>33</v>
+      </c>
+      <c r="J80" t="n">
+        <v>67</v>
+      </c>
+      <c r="K80" t="n">
+        <v>144.541821929481</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5184027800.629679</v>
+        <v>3930686140.147274</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1121223549118673</v>
+        <v>0.1150489043810857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02747573784232936</v>
+        <v>0.02273648118637639</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>30</v>
+      </c>
+      <c r="J81" t="n">
+        <v>68</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3974112179.814562</v>
+        <v>5278122253.965329</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1308391843853139</v>
+        <v>0.1999493876595877</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01937170578144921</v>
+        <v>0.02646244194628636</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>41</v>
+      </c>
+      <c r="J82" t="n">
+        <v>68</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2323903331.048068</v>
+        <v>2350705063.375755</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1576343035128736</v>
+        <v>0.1516302016967222</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03427434849732506</v>
+        <v>0.03870605993026602</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1796161278.740319</v>
+        <v>1866758784.713042</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08091443899208166</v>
+        <v>0.08868768173344242</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04052641591199879</v>
+        <v>0.04724588735753303</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2998890654.969689</v>
+        <v>3620956676.91129</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1581990754169101</v>
+        <v>0.1681790672877191</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04018207585285574</v>
+        <v>0.04950598112533826</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1769479705.617878</v>
+        <v>2529705004.553962</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1283936756737423</v>
+        <v>0.1362928750626427</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02008980257421482</v>
+        <v>0.02611782602099124</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1312852389.970303</v>
+        <v>1342430956.661765</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1518910218582945</v>
+        <v>0.1747793987713223</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02925912101269964</v>
+        <v>0.0299184115717414</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3497467653.984514</v>
+        <v>3068653338.752053</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1351710582065142</v>
+        <v>0.1666017858173888</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02906805230562293</v>
+        <v>0.03856241603834203</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="n">
+        <v>130.7479973673536</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2483452459.080362</v>
+        <v>3403727935.992035</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1285213301538725</v>
+        <v>0.1423096821742546</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03670825225664625</v>
+        <v>0.02733673524207566</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1953646040.129404</v>
+        <v>1438722359.34403</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267834959835745</v>
+        <v>0.1016205192624323</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04228643226706281</v>
+        <v>0.0520058685953957</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1923984324.011548</v>
+        <v>1309467631.508429</v>
       </c>
       <c r="F91" t="n">
-        <v>0.152984547280156</v>
+        <v>0.1306876850944325</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03852684266944677</v>
+        <v>0.0594360034847165</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1813023814.791568</v>
+        <v>2662821983.706755</v>
       </c>
       <c r="F92" t="n">
-        <v>0.098274465335369</v>
+        <v>0.09500672166818473</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0407178139307948</v>
+        <v>0.04639509768430749</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4270639143.248226</v>
+        <v>4518412140.403526</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1277377653967758</v>
+        <v>0.09061278963116261</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04042896152868396</v>
+        <v>0.04212589168246108</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>68</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2156339101.261796</v>
+        <v>1734782213.921728</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1306516005238609</v>
+        <v>0.113620736890391</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03586201478524011</v>
+        <v>0.0280249064729513</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2142100417.996648</v>
+        <v>3146950525.264281</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1355508043259015</v>
+        <v>0.1091254955664726</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03780060868327406</v>
+        <v>0.04050198431975632</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2049383609.660943</v>
+        <v>2357260036.650853</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08795292467589601</v>
+        <v>0.08807537390103307</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03253962245008433</v>
+        <v>0.03344140201009568</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4230428305.865509</v>
+        <v>3306610409.275396</v>
       </c>
       <c r="F97" t="n">
-        <v>0.131074200316658</v>
+        <v>0.1449919789889596</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02832813531323505</v>
+        <v>0.02071617797582449</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>33</v>
+      </c>
+      <c r="J97" t="n">
+        <v>67</v>
+      </c>
+      <c r="K97" t="n">
+        <v>139.599521024287</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3637898375.619648</v>
+        <v>2623045608.377445</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1158160408918669</v>
+        <v>0.0914211330011491</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03154997302917098</v>
+        <v>0.02066613269651807</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3426130955.443944</v>
+        <v>2575191183.803432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1310776912924669</v>
+        <v>0.1484829630422515</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02517014792564858</v>
+        <v>0.03241892272330451</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3828367054.809803</v>
+        <v>3928510821.849535</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1406925580282306</v>
+        <v>0.1333688876507544</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01808326346464917</v>
+        <v>0.02140012663873156</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>68</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2963253141.655135</v>
+        <v>3252205939.603265</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1386127973498972</v>
+        <v>0.1602604084245568</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05212307196246694</v>
+        <v>0.04836961866190999</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="n">
+        <v>130.1425013458135</v>
       </c>
     </row>
   </sheetData>
